--- a/biology/Histoire de la zoologie et de la botanique/Adolphus_Lewis_Heermann/Adolphus_Lewis_Heermann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolphus_Lewis_Heermann/Adolphus_Lewis_Heermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphus Lewis Heermann est un médecin et ornithologue américain, né vers 1827 et mort en 1865.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un médecin-naturaliste de l’armée américain qui a travaillé en collaboration avec Spencer Fullerton Baird (1823-1887) au sein du service de recherche de la Pacific Railroad. Il devient membre de la Académie des sciences naturelles en 1845 et diplômé de médecine à l’école de médecine de l’université du Maryland en 1846.
 Heermann est célèbre pour ses nombreux voyages scientifiques dans l’Est et l’Ouest de l’Amérique du Nord. En 1848, il est en Floride avec John Krider (1819-?1896), récolteur d’oiseaux professionnel. En 1848, il part dans l’Ouest pour la première fois. Son voyage durera trois ans et il en rapportera plus de 1 200 peaux d’oiseaux. En 1855-1856, il séjourne vers El Paso et San Antonio.
@@ -544,7 +558,9 @@
           <t>Bibliographe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).
 Edward S. Gruson (1972). Words for Birds. A Lexicon of North American Birds with Biographical Notes. Quadrangle Books (New York) : xiv + 305 p.</t>
